--- a/Documentacion/Proyecto/Tabla de recursos/Tabla de recursos.xlsx
+++ b/Documentacion/Proyecto/Tabla de recursos/Tabla de recursos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>ByteSoft</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Computadora</t>
   </si>
   <si>
-    <t>MS Proyect</t>
-  </si>
-  <si>
     <t>InVision</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>Virtual Box</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft PowerPoint</t>
+  </si>
+  <si>
+    <t>MS Project</t>
   </si>
 </sst>
 </file>
@@ -265,8 +271,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,136 +414,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,6 +435,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA4C8ED"/>
+      <color rgb="FFA4C8F7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -691,549 +715,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15">
+      <c r="D8" s="22"/>
+      <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9">
+      <c r="D10" s="16"/>
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17">
+      <c r="D12" s="22"/>
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15">
-        <v>4</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25">
-        <v>4</v>
-      </c>
-      <c r="F18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31">
+        <v>4</v>
+      </c>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15">
-        <v>4</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21">
+        <v>4</v>
+      </c>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="31">
-        <v>4</v>
-      </c>
-      <c r="F22" s="32"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="33">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="35">
-        <v>4</v>
-      </c>
-      <c r="F24" s="30"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="37">
+        <v>4</v>
+      </c>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="9">
-        <v>4</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="15">
+        <v>4</v>
+      </c>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21">
+        <v>4</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15">
-        <v>4</v>
-      </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21">
+        <v>4</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21">
+        <v>4</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9">
-        <v>4</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15">
-        <v>4</v>
-      </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9">
-        <v>4</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="21">
+        <v>4</v>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="15">
-        <v>4</v>
-      </c>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="43">
-        <v>4</v>
-      </c>
-      <c r="F38" s="44"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21">
+        <v>4</v>
+      </c>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15">
-        <v>4</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="43">
-        <v>4</v>
-      </c>
-      <c r="F42" s="44"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="21">
+        <v>4</v>
+      </c>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15">
-        <v>4</v>
-      </c>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43">
-        <v>4</v>
-      </c>
-      <c r="F46" s="44"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5">
+        <v>4</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="73">
     <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:F51"/>
     <mergeCell ref="A44:B45"/>
     <mergeCell ref="C44:D45"/>
     <mergeCell ref="E44:F45"/>
@@ -1252,15 +1324,12 @@
     <mergeCell ref="A38:B39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:F39"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
     <mergeCell ref="A32:B33"/>
     <mergeCell ref="C32:D33"/>
     <mergeCell ref="E32:F33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:F31"/>
@@ -1282,24 +1351,27 @@
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="E18:F19"/>
-    <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentacion/Proyecto/Tabla de recursos/Tabla de recursos.xlsx
+++ b/Documentacion/Proyecto/Tabla de recursos/Tabla de recursos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>ByteSoft</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>MS Project</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Sistema CentOS</t>
   </si>
 </sst>
 </file>
@@ -271,8 +280,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,18 +318,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,18 +354,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -427,6 +436,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,7 +736,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B29"/>
+      <selection sqref="A1:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +749,7 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
@@ -739,7 +757,7 @@
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
@@ -747,161 +765,161 @@
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15">
+      <c r="D6" s="20"/>
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15">
+      <c r="D10" s="20"/>
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19">
+      <c r="D12" s="2"/>
+      <c r="E12" s="23">
         <v>1</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="24"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21">
-        <v>4</v>
-      </c>
-      <c r="F16" s="22"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
@@ -926,68 +944,68 @@
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21">
-        <v>4</v>
-      </c>
-      <c r="F20" s="22"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="20"/>
       <c r="E22" s="33">
         <v>4</v>
       </c>
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="22"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="37">
         <v>4</v>
       </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
@@ -1000,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="15">
-        <v>4</v>
-      </c>
-      <c r="F26" s="16"/>
+      <c r="E26" s="19">
+        <v>4</v>
+      </c>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
@@ -1018,28 +1036,28 @@
         <v>28</v>
       </c>
       <c r="B28" s="41"/>
-      <c r="C28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21">
-        <v>4</v>
-      </c>
-      <c r="F28" s="22"/>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
@@ -1050,8 +1068,8 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
@@ -1062,28 +1080,28 @@
         <v>19</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21">
-        <v>4</v>
-      </c>
-      <c r="F32" s="22"/>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
@@ -1094,34 +1112,34 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21">
-        <v>4</v>
-      </c>
-      <c r="F36" s="22"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1154,18 +1172,18 @@
         <v>10</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="21">
-        <v>4</v>
-      </c>
-      <c r="F40" s="22"/>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1190,26 +1208,26 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21">
-        <v>4</v>
-      </c>
-      <c r="F44" s="22"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1234,26 +1252,26 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21">
-        <v>4</v>
-      </c>
-      <c r="F48" s="22"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -1277,12 +1295,72 @@
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5">
+        <v>4</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+    </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1376,7 @@
     <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="82">
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A48:B49"/>
     <mergeCell ref="C48:D49"/>
@@ -1372,6 +1450,15 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
